--- a/medicine/Enfance/Jean_Alessandrini/Jean_Alessandrini.xlsx
+++ b/medicine/Enfance/Jean_Alessandrini/Jean_Alessandrini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Alessandrini est un typographe, illustrateur et écrivain français, auteur de romans policiers et de littérature de jeunesse, né le 3 août 1942 à Marseille. Il est notamment connu pour avoir mis au point en 1979 une classification des caractères typographiques : le Codex 80 et en tant qu'écrivain il s'est vu décerner en 1994 le prix Goncourt "Jeunesse".
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études à Paris, il tente sans succès d'entrer à l'école des arts appliqués puis suit un apprentissage au collège d’art graphique de la rue Corvisart à Paris, où il entre en contact avec ses premières « lettres »[1]. Il devient ensuite maquettiste et illustrateur de presse, pour Paris Match, pour Lui, dont il dessine le logo, et pour la revue de bandes dessinées Pilote , revue pour laquelle il s'occupe de la typographie, du logo, des illustrations et dans laquelle il publie des jeux et des nouvelles et réalise également des couvertures[1],[2]. Il réalise à la même époque des couvertures pour les Éditions Gallimard.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études à Paris, il tente sans succès d'entrer à l'école des arts appliqués puis suit un apprentissage au collège d’art graphique de la rue Corvisart à Paris, où il entre en contact avec ses premières « lettres ». Il devient ensuite maquettiste et illustrateur de presse, pour Paris Match, pour Lui, dont il dessine le logo, et pour la revue de bandes dessinées Pilote , revue pour laquelle il s'occupe de la typographie, du logo, des illustrations et dans laquelle il publie des jeux et des nouvelles et réalise également des couvertures,. Il réalise à la même époque des couvertures pour les Éditions Gallimard.
 Illustrateur indépendant à partir de 1966, il collabore à diverses éditions, comme la série des Livres de la santé, puis Albert Hollenstein et son atelier Phototypo lui permet d'éditer plusieurs de ses créations typographiques (Hypnos, Akenaton, Alessandrini 7 et la plus connue, Mirago).
-Jean Alessandrini a mis au point en 1979 une classification des caractères typographiques : le Codex 80[3]. Il s'agit d'une classification supplémentaire basée sur la forme des empattements, après celles de Francis Thibaudeau, Maximilien Vox et Aldo Novarese. Elle n'eut pas un grand succès.
+Jean Alessandrini a mis au point en 1979 une classification des caractères typographiques : le Codex 80. Il s'agit d'une classification supplémentaire basée sur la forme des empattements, après celles de Francis Thibaudeau, Maximilien Vox et Aldo Novarese. Elle n'eut pas un grand succès.
 En 1989, il obtient la mention "Premio Grafico" de la Foire du livre de jeunesse de Bologne (Italie) pour son ouvrage jeunesse Rentre chez toi, Tom !.
-En 1994, il se voit fort discrètement décerner le prix Goncourt "Jeunesse" pour Une histoire à spirales (Grasset Jeunesse, 1994)[4].
+En 1994, il se voit fort discrètement décerner le prix Goncourt "Jeunesse" pour Une histoire à spirales (Grasset Jeunesse, 1994).
 </t>
         </is>
       </c>
@@ -548,14 +562,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans
-Le Prince d'Aéropolis (Éditions de l'amitié, 1986)
-L'Île de Pingo-Pingo (Éditions Phébus, 2003)[5]
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Prince d'Aéropolis (Éditions de l'amitié, 1986)
+L'Île de Pingo-Pingo (Éditions Phébus, 2003)
 La Quadrature du meurtre (Éditions Phébus, 2006)
 Hécatombe de lunatiques (Éditions Phébus, 2010)
-Sherlock Holmes : compléments d'enquête (Andersen éditions, 2021)
-Ouvrages de littérature jeunesse
-Les œuvres de Jean Alessandrini se caractérisent par une mise en scène des mots-images ("quand le mot devient image")
+Sherlock Holmes : compléments d'enquête (Andersen éditions, 2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Alessandrini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Alessandrini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les œuvres de Jean Alessandrini se caractérisent par une mise en scène des mots-images ("quand le mot devient image")
 Paul et le Chat vert (Bayard, coll. J'aime lire, 1977) illustré par l'auteur
 Paul et le Robot (Bayard, coll. J'aime lire, 1979) illustré par l'auteur
 Paul et le Takin (Bayard, coll. J'aime Lire) illustré par l'auteur
@@ -578,19 +631,156 @@
 Qui a vu l'ours ? (Callicéphale, 2002) illustré par Sophie Kniffke
 Mystère et Chocolat (Bayard, coll. J'aime Lire, 2003) illustré par Jean-Louis Besson
 Le Bavard à moustaches (Nathan, 2003)
-L'ours sort ses griffes (Rageot coll. Cascade, 2004)
-Ouvrages graphiques
-Typomanie, éditions La Noria (1977), Collection l’Œil de la lettre (avec une préface de Massin).  (ISBN 2857210264)[6]
+L'ours sort ses griffes (Rageot coll. Cascade, 2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Alessandrini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Alessandrini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages graphiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typomanie, éditions La Noria (1977), Collection l’Œil de la lettre (avec une préface de Massin).  (ISBN 2857210264)
 L’ABC de la lettre, éditions Retz (1987)
 Abécédaire, où Quand le Mot devient Image, éditions Retz (1986)
 Codex 1980, éditions Atelier Perrousseaux (2021)
-« Quand le mot devient image », éditions Retz
-Divers
-Drapeaux, les couleurs du monde, Hatier (1993) [7]
-Nouvelles
-Plusieurs nouvelles publiées dans Lui à partir de 1967 (dont certaines illustrées par lui-même) et dans Pilote à partir de 1970.
-Illustrations
-Plusieurs des illustrations originales pour l’édition et la presse ont été acquises par le Musée Tomi-Ungerer – Centre international de l'illustration situé à Strasbourg[8].
+« Quand le mot devient image », éditions Retz</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Alessandrini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Alessandrini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drapeaux, les couleurs du monde, Hatier (1993) </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean_Alessandrini</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Alessandrini</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs nouvelles publiées dans Lui à partir de 1967 (dont certaines illustrées par lui-même) et dans Pilote à partir de 1970.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean_Alessandrini</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Alessandrini</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs des illustrations originales pour l’édition et la presse ont été acquises par le Musée Tomi-Ungerer – Centre international de l'illustration situé à Strasbourg.
 </t>
         </is>
       </c>
